--- a/Test_interface/data/data.xlsx
+++ b/Test_interface/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="1"/>
+    <workbookView windowWidth="19215" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -543,9 +543,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -571,30 +571,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,6 +579,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -617,30 +602,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,7 +623,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,47 +707,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,25 +731,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,19 +857,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,133 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,49 +925,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -988,26 +955,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,6 +980,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1030,10 +1030,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,137 +1042,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,9 +1181,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1614,10 +1611,10 @@
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1643,10 +1640,10 @@
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1672,10 +1669,10 @@
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1701,10 +1698,10 @@
       <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1730,10 +1727,10 @@
       <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1759,10 +1756,10 @@
       <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1788,10 +1785,10 @@
       <c r="G8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1817,7 +1814,7 @@
       <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1849,7 +1846,7 @@
       <c r="I10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1878,7 +1875,7 @@
       <c r="I11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1907,7 +1904,7 @@
       <c r="I12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1936,7 +1933,7 @@
       <c r="I13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2069,7 +2066,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="36" customHeight="1"/>
@@ -2136,7 +2133,7 @@
       <c r="G2" t="s">
         <v>92</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J2" t="s">

--- a/Test_interface/data/data.xlsx
+++ b/Test_interface/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19215" windowHeight="7335" activeTab="1"/>
+    <workbookView windowWidth="21915" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -421,6 +421,27 @@
     <t>{"error_code": true, "error_msg": ""}</t>
   </si>
   <si>
+    <t>forpwd-1</t>
+  </si>
+  <si>
+    <t>data={"email":"15194779206","verify_code": "414628","password":"MTIzNDU2","nationcode_id": "214","nationcode": "86"}</t>
+  </si>
+  <si>
+    <t>forpwd-2</t>
+  </si>
+  <si>
+    <t>forpwd-3</t>
+  </si>
+  <si>
+    <t>forpwd-4</t>
+  </si>
+  <si>
+    <t>forpwd-5</t>
+  </si>
+  <si>
+    <t>forpwd-6</t>
+  </si>
+  <si>
     <t>cireCmp-1</t>
   </si>
   <si>
@@ -543,9 +564,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -571,7 +592,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,17 +606,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,14 +629,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,7 +651,69 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,67 +728,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -731,187 +752,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,26 +993,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,11 +1018,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,10 +1051,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,137 +1063,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,6 +1202,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1611,10 +1635,10 @@
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1640,10 +1664,10 @@
       <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1669,10 +1693,10 @@
       <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1698,10 +1722,10 @@
       <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1727,10 +1751,10 @@
       <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1756,10 +1780,10 @@
       <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1785,10 +1809,10 @@
       <c r="G8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1814,7 +1838,7 @@
       <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1846,7 +1870,7 @@
       <c r="I10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1875,7 +1899,7 @@
       <c r="I11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1904,7 +1928,7 @@
       <c r="I12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1933,7 +1957,7 @@
       <c r="I13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2065,8 +2089,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="36" customHeight="1"/>
@@ -2163,14 +2187,89 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="41" customHeight="1" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="44.375" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="16384" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:1">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:1">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2234,147 +2333,147 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>96</v>
@@ -2459,25 +2558,25 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
